--- a/Istiqlal/Sekolah/SMP-SMA/MPLS 2022/Cetak Sertifikat 22-23 (1).xlsx
+++ b/Istiqlal/Sekolah/SMP-SMA/MPLS 2022/Cetak Sertifikat 22-23 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ichsan\design\Istiqlal\Sekolah\SMP-SMA\MPLS 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FD2255-4F6B-499A-89B4-35BBA6BFD868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAA6FCB-8E89-47CE-A123-CA47485E67F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{204C5DDF-0057-412F-9EF2-87D28F672137}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>Rasikh Afkar</t>
   </si>
   <si>
-    <t>Muhammad Nawwaf Arkaan</t>
-  </si>
-  <si>
     <t>Muhammad Ahlul Ramadhan</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>Fatihah Unaisah Maulani</t>
+  </si>
+  <si>
+    <t>Muhammad Nawwaaf Arkaan</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -640,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -651,7 +651,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -662,7 +662,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>15</v>
@@ -673,7 +673,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
@@ -684,7 +684,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
@@ -695,7 +695,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
@@ -709,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -720,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -731,7 +731,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -742,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -753,7 +753,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -764,7 +764,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -775,7 +775,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -786,7 +786,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -797,7 +797,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -808,7 +808,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -819,7 +819,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -830,7 +830,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -838,10 +838,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -849,10 +849,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -860,10 +860,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -871,10 +871,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -882,10 +882,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -896,7 +896,7 @@
         <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -907,7 +907,7 @@
         <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
